--- a/xlsx/country_comparison/climate_policies_mean.xlsx
+++ b/xlsx/country_comparison/climate_policies_mean.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.26865671641791</v>
+        <v>0.394366197183099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.645161290322581</v>
+        <v>0.38121546961326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.896551724137931</v>
+        <v>0.60655737704918</v>
       </c>
       <c r="E2" t="n">
-        <v>0.397058823529412</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.0410802586534804</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.298507462686567</v>
+        <v>0.514084507042254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.741935483870968</v>
+        <v>0.718232044198895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.931034482758621</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.544117647058823</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.453488372093023</v>
+        <v>0.349942944085203</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.328358208955224</v>
+        <v>0.415492957746479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225806451612903</v>
+        <v>0.602209944751381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.793103448275862</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="E4" t="n">
-        <v>0.279411764705882</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.151162790697674</v>
+        <v>0.148725751236211</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_mean.xlsx
+++ b/xlsx/country_comparison/climate_policies_mean.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.394366197183099</v>
+        <v>0.306451612903226</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38121546961326</v>
+        <v>0.359313077939234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.60655737704918</v>
+        <v>0.756906077348066</v>
       </c>
       <c r="E2" t="n">
-        <v>0.173913043478261</v>
+        <v>0.277950310559006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0410802586534804</v>
+        <v>0.0408626560726447</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.514084507042254</v>
+        <v>0.52258064516129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.718232044198895</v>
+        <v>0.696169088507266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.778688524590164</v>
+        <v>0.869244935543278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.260869565217391</v>
+        <v>0.631987577639752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.349942944085203</v>
+        <v>0.348467650397276</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.415492957746479</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.602209944751381</v>
+        <v>0.578599735799207</v>
       </c>
       <c r="D4" t="n">
-        <v>0.557377049180328</v>
+        <v>0.69060773480663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.173913043478261</v>
+        <v>0.389751552795031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.148725751236211</v>
+        <v>0.149829738933031</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_mean.xlsx
+++ b/xlsx/country_comparison/climate_policies_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306451612903226</v>
+        <v>0.013889856791103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.359313077939234</v>
+        <v>0.387625462958945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.756906077348066</v>
+        <v>0.339128131163464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.277950310559006</v>
+        <v>0.340843343023117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0408626560726447</v>
+        <v>0.716407330493261</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.360560845060241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.52258064516129</v>
+        <v>0.328365745265388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.696169088507266</v>
+        <v>0.659768121989391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.869244935543278</v>
+        <v>0.558337695114308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631987577639752</v>
+        <v>0.666504162569655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.348467650397276</v>
+        <v>0.884786847045576</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.620287129960133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.403225806451613</v>
+        <v>0.135638551857709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.578599735799207</v>
+        <v>0.513078429854491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.69060773480663</v>
+        <v>0.446299885616666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.389751552795031</v>
+        <v>0.558126151390076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.149829738933031</v>
+        <v>0.659381287476329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.464121574143084</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_mean.xlsx
+++ b/xlsx/country_comparison/climate_policies_mean.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.013889856791103</v>
+        <v>0.045923622473578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.387625462958945</v>
+        <v>0.415614128101992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.339128131163464</v>
+        <v>0.355003395102874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.340843343023117</v>
+        <v>0.384920722670987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.716407330493261</v>
+        <v>0.712001485457088</v>
       </c>
       <c r="G2" t="n">
-        <v>0.360560845060241</v>
+        <v>0.351152535943474</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.328365745265388</v>
+        <v>0.363392836940455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659768121989391</v>
+        <v>0.676945270116784</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558337695114308</v>
+        <v>0.549313692389479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.666504162569655</v>
+        <v>0.707147724898173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.884786847045576</v>
+        <v>0.898656589444003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.620287129960133</v>
+        <v>0.6399572484405</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.135638551857709</v>
+        <v>0.172015319281993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513078429854491</v>
+        <v>0.524416141560814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.446299885616666</v>
+        <v>0.43969670018905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.558126151390076</v>
+        <v>0.579185819720047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.659381287476329</v>
+        <v>0.671160223996424</v>
       </c>
       <c r="G4" t="n">
-        <v>0.464121574143084</v>
+        <v>0.421632625856207</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_mean.xlsx
+++ b/xlsx/country_comparison/climate_policies_mean.xlsx
@@ -35,13 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
 </sst>
 </file>
@@ -401,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.045923622473578</v>
+        <v>0.0460734910149551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.415614128101992</v>
+        <v>0.420789285712152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355003395102874</v>
+        <v>0.354815093607574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.384920722670987</v>
+        <v>0.384925385322028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.712001485457088</v>
+        <v>0.728875163433577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.351152535943474</v>
+        <v>0.351115958564954</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.363392836940455</v>
+        <v>0.363475325351156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.676945270116784</v>
+        <v>0.675757600404575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.549313692389479</v>
+        <v>0.549180456697259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.707147724898173</v>
+        <v>0.707186478073401</v>
       </c>
       <c r="F3" t="n">
-        <v>0.898656589444003</v>
+        <v>0.847603208216924</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6399572484405</v>
+        <v>0.639895275923514</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172015319281993</v>
+        <v>0.172116107147519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.524416141560814</v>
+        <v>0.528975011194529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43969670018905</v>
+        <v>0.439506678714161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.579185819720047</v>
+        <v>0.579206426799878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.671160223996424</v>
+        <v>0.704007264191714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.421632625856207</v>
+        <v>0.421581851489749</v>
       </c>
     </row>
   </sheetData>
